--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>13.14402922979559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.699943429136592</v>
+        <v>9.699943429136598</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.8124739777813015</v>
@@ -627,7 +627,7 @@
         <v>0.8703104086575523</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4199911231299406</v>
+        <v>0.4199911231299409</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.658045119167259</v>
+        <v>9.79047925863197</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.581918444488194</v>
+        <v>8.709110568791505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.689809769950243</v>
+        <v>5.58380978948375</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4679019645475564</v>
+        <v>0.4625458197064885</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5211246241550379</v>
+        <v>0.5083033823178628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2190869643780648</v>
+        <v>0.2151440658976968</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.3132369891655</v>
+        <v>19.33979062197282</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.75762320012824</v>
+        <v>18.12605900159551</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.14810188043669</v>
+        <v>13.7705851298789</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.20129360298498</v>
+        <v>1.20596474606697</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.39690269829734</v>
+        <v>1.35389020970781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6957676823406678</v>
+        <v>0.6656365886408844</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.908163391494385</v>
+        <v>9.025317005675024</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.164957505502991</v>
+        <v>7.341144819297474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.38208779743061</v>
+        <v>12.41325703734037</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4683931354614182</v>
+        <v>0.4676043550771276</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4239319785073272</v>
+        <v>0.4478008462799452</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7059951061478953</v>
+        <v>0.7189776585550083</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.36474207678965</v>
+        <v>16.73594371042833</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.75679108824891</v>
+        <v>14.53339906246518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.06890683466789</v>
+        <v>19.1619711059692</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.043221609614906</v>
+        <v>1.110931192683787</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.078127636210362</v>
+        <v>1.082846751138208</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.390278109170608</v>
+        <v>1.420500636508182</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.526822108252657</v>
+        <v>6.87983553295066</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.610376040557813</v>
+        <v>5.553681442491475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.74756420244767</v>
+        <v>10.83108274279666</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.3788956840405801</v>
+        <v>0.3937947909214299</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3512059531965284</v>
+        <v>0.3607017063171011</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5356725582801416</v>
+        <v>0.5649546710527055</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.15104876845916</v>
+        <v>15.37979558007403</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.11710582921849</v>
+        <v>13.68544533410397</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.96418019046764</v>
+        <v>19.16062408147074</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.2249714837332</v>
+        <v>1.192087635292538</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.18732542831848</v>
+        <v>1.159635693490018</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.290252487472147</v>
+        <v>1.305855889307082</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.913480912056031</v>
+        <v>6.84437312388121</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.59434230805951</v>
+        <v>6.731904963741226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11.82859774533368</v>
+        <v>11.59164837167348</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3452454634553049</v>
+        <v>0.3455893468266495</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.371224402374232</v>
+        <v>0.3918160253661237</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5627871276564304</v>
+        <v>0.5650653114253624</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.87336103441662</v>
+        <v>14.64535411638343</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.08863536131436</v>
+        <v>14.0984283860413</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.54605715749865</v>
+        <v>18.42190706439675</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9281759900097263</v>
+        <v>0.9153803939003369</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.035855568669708</v>
+        <v>0.9943008050246172</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.089960360743128</v>
+        <v>1.106296799564414</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>10.84831517334078</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14.21944349234845</v>
+        <v>14.21944349234846</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.716799690448169</v>
@@ -955,7 +955,7 @@
         <v>0.7269700004991121</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7836904203883435</v>
+        <v>0.7836904203883437</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.05703315403035</v>
+        <v>10.15803503114669</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.8924393673193</v>
+        <v>8.883470608041645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.29158112145586</v>
+        <v>12.28102926966568</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.5531039830019396</v>
+        <v>0.5582352641071018</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.551352596788361</v>
+        <v>0.5577487615565417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6458429313262812</v>
+        <v>0.6373447632403265</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.35528733689984</v>
+        <v>14.44510735750298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.91805842303818</v>
+        <v>12.88855108982234</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.99644098765056</v>
+        <v>15.96871671590727</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.8892364272078567</v>
+        <v>0.9009819675540907</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9120599177522103</v>
+        <v>0.9038514194625049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9394460355841453</v>
+        <v>0.9268936167470478</v>
       </c>
     </row>
     <row r="19">
